--- a/data/wiki_table.xlsx
+++ b/data/wiki_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectData\PythonProject\osuwiki-generator\pythonProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectData\GitProject\Osu-wiki-write-utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E1F9CA-E08A-4A53-9206-4A37D960AF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FF445-8554-49B5-9FB8-4CC25B98201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="1620" windowWidth="18030" windowHeight="11570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10180" yWindow="2110" windowWidth="13560" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Head</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,73 +145,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lovely_hyahya</t>
-  </si>
-  <si>
-    <t>lous</t>
-  </si>
-  <si>
-    <t>Round</t>
+    <t>center</t>
+  </si>
+  <si>
+    <t>Team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps</t>
+    <t>Players</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round of 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round of 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quarterfinals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Semifinals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grand Finals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>6 Rice, 3 LN, 3 Hybrid, 1 Tiebreaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 Rice, 4 LN, 2 Hybrid, 1 Tiebreaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 Rice, 4 LN, 3 Hybrid, 1 Tiebreaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 Rice, 5 LN, 3 Hybrid, 1 Tiebreaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Hakumo Shiro</t>
+  </si>
+  <si>
+    <t>iz6</t>
+  </si>
+  <si>
+    <t>FLDR</t>
+  </si>
+  <si>
+    <t>Molli</t>
+  </si>
+  <si>
+    <t>-Mahiro</t>
+  </si>
+  <si>
+    <t>Laplus Darkness</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>mcy4</t>
+  </si>
+  <si>
+    <t>-PSC-</t>
+  </si>
+  <si>
+    <t>yuiko122</t>
+  </si>
+  <si>
+    <t>DAQAO</t>
+  </si>
+  <si>
+    <t>ggfwk</t>
+  </si>
+  <si>
+    <t>GAO HAO</t>
+  </si>
+  <si>
+    <t>ArFunG</t>
+  </si>
+  <si>
+    <t>Kyros_</t>
+  </si>
+  <si>
+    <t>Ledeau_Fox</t>
+  </si>
+  <si>
+    <t>carrywind</t>
+  </si>
+  <si>
+    <t>Ayaneruuu</t>
+  </si>
+  <si>
+    <t>Yat5uki_sanz</t>
+  </si>
+  <si>
+    <t>[Crz]xz1z1z</t>
+  </si>
+  <si>
+    <t>UselessPlayer</t>
+  </si>
+  <si>
+    <t>tezi</t>
+  </si>
+  <si>
+    <t>Reisen-Desu</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Azureus</t>
+  </si>
+  <si>
+    <t>Rayter-</t>
+  </si>
+  <si>
+    <t>Lapis</t>
+  </si>
+  <si>
+    <t>A Maker</t>
+  </si>
+  <si>
+    <t>pr1mary</t>
+  </si>
+  <si>
+    <t>Shiki-Natsume</t>
+  </si>
+  <si>
+    <t>Saionji Sarasa</t>
+  </si>
+  <si>
+    <t>lolol233</t>
+  </si>
+  <si>
+    <t>Komeiji_Satori_</t>
+  </si>
+  <si>
+    <t>Anonymous568</t>
+  </si>
+  <si>
+    <t>YRScarlet</t>
+  </si>
+  <si>
+    <t>Meow_Son</t>
+  </si>
+  <si>
+    <t>jj986544591</t>
+  </si>
+  <si>
+    <t>WhiteTights</t>
+  </si>
+  <si>
+    <t>Moonlit111</t>
+  </si>
+  <si>
+    <t>lolol235</t>
+  </si>
+  <si>
+    <t>Polyr3x</t>
+  </si>
+  <si>
+    <t>-Inui Sana-</t>
+  </si>
+  <si>
+    <t>jjjjj_gura</t>
+  </si>
+  <si>
+    <t>Mimosa M</t>
+  </si>
+  <si>
+    <t>SBHO</t>
+  </si>
+  <si>
+    <t>saberrrrrr</t>
+  </si>
+  <si>
+    <t>Imokora</t>
+  </si>
+  <si>
+    <t>Shiina Noriko</t>
+  </si>
+  <si>
+    <t>- kouyuu -</t>
+  </si>
+  <si>
+    <t>Mangent</t>
+  </si>
+  <si>
+    <t>Sana Chitose</t>
+  </si>
+  <si>
+    <t>Corn-Din</t>
+  </si>
+  <si>
+    <t>DuNai</t>
+  </si>
+  <si>
+    <t>z980838928</t>
+  </si>
+  <si>
+    <t>Dwagon</t>
+  </si>
+  <si>
+    <t>hojo_satoshi</t>
+  </si>
+  <si>
+    <t>Aporia</t>
+  </si>
+  <si>
+    <t>Knd</t>
+  </si>
+  <si>
+    <t>Ask to Wind</t>
+  </si>
+  <si>
+    <t>Summer_Ouo</t>
+  </si>
+  <si>
+    <t>stllok</t>
+  </si>
+  <si>
+    <t>-YeLing-</t>
+  </si>
+  <si>
+    <t>willy0214</t>
+  </si>
+  <si>
+    <t>隊名:有主意嗎:Correction:</t>
+  </si>
+  <si>
+    <t>:CatStare:</t>
+  </si>
+  <si>
+    <t>班上天天上班</t>
+  </si>
+  <si>
+    <t>喜欢我的话请给我钱吧</t>
+  </si>
+  <si>
+    <t>王者之梦</t>
+  </si>
+  <si>
+    <t>我们站在桥上看风景</t>
+  </si>
+  <si>
+    <t>赤石传奇</t>
+  </si>
+  <si>
+    <t>54owc</t>
+  </si>
+  <si>
+    <t>Hakumo Shiro,iz6,FLDR,Molli,-Mahiro,Laplus Darkness,Macao,mcy4</t>
+  </si>
+  <si>
+    <t>-PSC-,yuiko122,DAQAO,ggfwk,GAO HAO,ArFunG,Kyros_,Ledeau_Fox</t>
+  </si>
+  <si>
+    <t>carrywind,Ayaneruuu,Yat5uki_sanz,[Crz]xz1z1z,UselessPlayer,tezi,Reisen-Desu,Crystal</t>
+  </si>
+  <si>
+    <t>Azureus,Rayter-,Lapis,A Maker,pr1mary,Shiki-Natsume,Saionji Sarasa,lolol233</t>
+  </si>
+  <si>
+    <t>Komeiji_Satori_,Anonymous568,YRScarlet,Meow_Son,jj986544591,WhiteTights,Moonlit111,lolol235</t>
+  </si>
+  <si>
+    <t>Polyr3x,-Inui Sana-,jjjjj_gura,Mimosa M,SBHO,saberrrrrr,Imokora,Shiina Noriko</t>
+  </si>
+  <si>
+    <t>- kouyuu -,Mangent,Sana Chitose,970,Corn-Din,DuNai,z980838928,Dwagon</t>
+  </si>
+  <si>
+    <t>hojo_satoshi,Aporia,Knd,Ask to Wind,Summer_Ouo,stllok,-YeLing-,willy0214</t>
   </si>
 </sst>
 </file>
@@ -591,7 +792,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -624,13 +825,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -666,7 +867,9 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -682,16 +885,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.4">
@@ -699,105 +896,67 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
@@ -891,26 +1050,485 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB1755-85A9-4D85-A548-969EB44EA743}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,2:2)</f>
-        <v>lovely_hyahya,lous</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>970</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12:I19">TRANSPOSE(B2:I9)</f>
+        <v>Hakumo Shiro</v>
+      </c>
+      <c r="C12" t="str">
+        <v>iz6</v>
+      </c>
+      <c r="D12" t="str">
+        <v>FLDR</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Molli</v>
+      </c>
+      <c r="F12" t="str">
+        <v>-Mahiro</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Laplus Darkness</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Macao</v>
+      </c>
+      <c r="I12" t="str">
+        <v>mcy4</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B12:I12)</f>
+        <v>Hakumo Shiro,iz6,FLDR,Molli,-Mahiro,Laplus Darkness,Macao,mcy4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="str">
+        <v>-PSC-</v>
+      </c>
+      <c r="C13" t="str">
+        <v>yuiko122</v>
+      </c>
+      <c r="D13" t="str">
+        <v>DAQAO</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ggfwk</v>
+      </c>
+      <c r="F13" t="str">
+        <v>GAO HAO</v>
+      </c>
+      <c r="G13" t="str">
+        <v>ArFunG</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Kyros_</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Ledeau_Fox</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:K19" si="0">_xlfn.TEXTJOIN(",",TRUE,B13:I13)</f>
+        <v>-PSC-,yuiko122,DAQAO,ggfwk,GAO HAO,ArFunG,Kyros_,Ledeau_Fox</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="str">
+        <v>carrywind</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Ayaneruuu</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Yat5uki_sanz</v>
+      </c>
+      <c r="E14" t="str">
+        <v>[Crz]xz1z1z</v>
+      </c>
+      <c r="F14" t="str">
+        <v>UselessPlayer</v>
+      </c>
+      <c r="G14" t="str">
+        <v>tezi</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Reisen-Desu</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Crystal</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>carrywind,Ayaneruuu,Yat5uki_sanz,[Crz]xz1z1z,UselessPlayer,tezi,Reisen-Desu,Crystal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Azureus</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Rayter-</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Lapis</v>
+      </c>
+      <c r="E15" t="str">
+        <v>A Maker</v>
+      </c>
+      <c r="F15" t="str">
+        <v>pr1mary</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Shiki-Natsume</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Saionji Sarasa</v>
+      </c>
+      <c r="I15" t="str">
+        <v>lolol233</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>Azureus,Rayter-,Lapis,A Maker,pr1mary,Shiki-Natsume,Saionji Sarasa,lolol233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Komeiji_Satori_</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Anonymous568</v>
+      </c>
+      <c r="D16" t="str">
+        <v>YRScarlet</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Meow_Son</v>
+      </c>
+      <c r="F16" t="str">
+        <v>jj986544591</v>
+      </c>
+      <c r="G16" t="str">
+        <v>WhiteTights</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Moonlit111</v>
+      </c>
+      <c r="I16" t="str">
+        <v>lolol235</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>Komeiji_Satori_,Anonymous568,YRScarlet,Meow_Son,jj986544591,WhiteTights,Moonlit111,lolol235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Polyr3x</v>
+      </c>
+      <c r="C17" t="str">
+        <v>-Inui Sana-</v>
+      </c>
+      <c r="D17" t="str">
+        <v>jjjjj_gura</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Mimosa M</v>
+      </c>
+      <c r="F17" t="str">
+        <v>SBHO</v>
+      </c>
+      <c r="G17" t="str">
+        <v>saberrrrrr</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Imokora</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Shiina Noriko</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>Polyr3x,-Inui Sana-,jjjjj_gura,Mimosa M,SBHO,saberrrrrr,Imokora,Shiina Noriko</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="str">
+        <v>- kouyuu -</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Mangent</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Sana Chitose</v>
+      </c>
+      <c r="E18">
+        <v>970</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Corn-Din</v>
+      </c>
+      <c r="G18" t="str">
+        <v>DuNai</v>
+      </c>
+      <c r="H18" t="str">
+        <v>z980838928</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Dwagon</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>- kouyuu -,Mangent,Sana Chitose,970,Corn-Din,DuNai,z980838928,Dwagon</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="str">
+        <v>hojo_satoshi</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Aporia</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Knd</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Ask to Wind</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Summer_Ouo</v>
+      </c>
+      <c r="G19" t="str">
+        <v>stllok</v>
+      </c>
+      <c r="H19" t="str">
+        <v>-YeLing-</v>
+      </c>
+      <c r="I19" t="str">
+        <v>willy0214</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>hojo_satoshi,Aporia,Knd,Ask to Wind,Summer_Ouo,stllok,-YeLing-,willy0214</v>
       </c>
     </row>
   </sheetData>
